--- a/ExperimentalResults/RTTPositioningTwoFloors.xlsx
+++ b/ExperimentalResults/RTTPositioningTwoFloors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tori\Documents\Master-Thesis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tori\Documents\Master-Thesis\indoor-positioning-for-bim\ExperimentalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF12285-358F-45FE-A725-3FF3CD4861FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA7DBCA-39B8-4F7A-BDA0-97599493FBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{B7DFF4DF-E9BC-4E29-9811-FAE41013ECBF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B7DFF4DF-E9BC-4E29-9811-FAE41013ECBF}"/>
   </bookViews>
   <sheets>
     <sheet name="W0" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>Created</t>
   </si>
@@ -153,16 +153,10 @@
     <t>08:b4:b1:85:4a:f5</t>
   </si>
   <si>
-    <t>0x0000ff</t>
-  </si>
-  <si>
     <t>xx</t>
   </si>
   <si>
     <t>3DW0</t>
-  </si>
-  <si>
-    <t>0xa000ff</t>
   </si>
 </sst>
 </file>
@@ -780,7 +774,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="C2:H12"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA25BEFF-7C9B-46E5-BC29-0D481EA50D58}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,7 +2429,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="C2:H12"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,7 +2483,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="24">
         <v>6</v>
@@ -2522,7 +2516,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="52">
         <v>6</v>
@@ -2555,7 +2549,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="52">
         <v>6</v>
@@ -2588,7 +2582,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="52">
         <v>6</v>
@@ -2621,7 +2615,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="52">
         <v>6</v>
@@ -2654,7 +2648,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="52">
         <v>6</v>
@@ -2687,7 +2681,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="52">
         <v>6</v>
@@ -2720,7 +2714,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="52">
         <v>6</v>
@@ -2753,7 +2747,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="52">
         <v>6</v>
@@ -2786,7 +2780,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="52">
         <v>6</v>
@@ -2819,7 +2813,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="52">
         <v>6</v>
@@ -2909,10 +2903,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95B887D-7DE2-4273-BD22-BD1210F67F72}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,7 +2917,7 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
@@ -2937,7 +2931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2950,11 +2944,8 @@
       <c r="D2" s="60">
         <v>-351732.9374828916</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2967,11 +2958,8 @@
       <c r="D3" s="60">
         <v>-351248.64952887269</v>
       </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2984,11 +2972,8 @@
       <c r="D4" s="60">
         <v>-329141.41202189378</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -3001,11 +2986,8 @@
       <c r="D5" s="60">
         <v>-330864.9970057765</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3018,11 +3000,8 @@
       <c r="D6" s="60">
         <v>-325464.20177916501</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3034,9 +3013,6 @@
       </c>
       <c r="D7" s="60">
         <v>-324977.11831615516</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3138,7 +3114,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <f>AVERAGE('3DW0'!$J$2:'3DW0'!$J$12)</f>
